--- a/algstudent/Lab5/lab5mediciones.xlsx
+++ b/algstudent/Lab5/lab5mediciones.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo288764\Documents\Algoritmia\algorithmics-template\algstudent\Lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmene\Documents\2o\Algoritmia\algorithmics-template\algstudent\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504530CD-F95B-44F2-ACA8-FE2E842B6BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11820"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab5" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Substraction1</t>
   </si>
@@ -162,13 +175,94 @@
   </si>
   <si>
     <t>n=3200**TIME=157774**cont=12489826056</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>mergesort</t>
+  </si>
+  <si>
+    <t>quicksort</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>LOR</t>
+  </si>
+  <si>
+    <t>OOT</t>
+  </si>
+  <si>
+    <t>2*10000</t>
+  </si>
+  <si>
+    <t>2**2*10000</t>
+  </si>
+  <si>
+    <t>2**3*10000</t>
+  </si>
+  <si>
+    <t>2**4*10000</t>
+  </si>
+  <si>
+    <t>2**5*10000</t>
+  </si>
+  <si>
+    <t>2**6*10000</t>
+  </si>
+  <si>
+    <t>2**7*10000</t>
+  </si>
+  <si>
+    <t>2**8*10000</t>
+  </si>
+  <si>
+    <t>2**9*10000</t>
+  </si>
+  <si>
+    <t>2**10*10000</t>
+  </si>
+  <si>
+    <t>2**11*10000</t>
+  </si>
+  <si>
+    <t>2**12*10000</t>
+  </si>
+  <si>
+    <t>2**13*10000</t>
+  </si>
+  <si>
+    <t>2**14*10000</t>
+  </si>
+  <si>
+    <t>t1/t2</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>OOT(68498)</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +270,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,13 +310,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,22 +628,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +651,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +659,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -518,7 +667,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -538,22 +695,22 @@
         <v>18966.355787036999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -564,7 +721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -575,7 +732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -586,7 +743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -597,7 +754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -608,7 +765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -619,7 +776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -627,90 +784,547 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D22" s="7">
+        <v>31250</v>
+      </c>
+      <c r="E22" s="10">
+        <v>42</v>
+      </c>
+      <c r="F22" s="10">
+        <v>31</v>
+      </c>
+      <c r="G22" s="10">
+        <v>34</v>
+      </c>
+      <c r="I22" s="2">
+        <v>34</v>
+      </c>
+      <c r="L22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D23" s="7">
+        <f>D22*2</f>
+        <v>62500</v>
+      </c>
+      <c r="E23" s="10">
+        <v>85</v>
+      </c>
+      <c r="F23" s="10">
+        <v>67</v>
+      </c>
+      <c r="G23" s="10">
+        <v>71</v>
+      </c>
+      <c r="I23" s="2">
+        <v>71</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D24" s="7">
+        <f t="shared" ref="D24:D32" si="0">D23*2</f>
+        <v>125000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>193</v>
+      </c>
+      <c r="F24" s="10">
+        <v>125</v>
+      </c>
+      <c r="G24" s="10">
+        <v>146</v>
+      </c>
+      <c r="I24" s="2">
+        <v>146</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="8">
+        <v>63</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="E25" s="10">
+        <v>333</v>
+      </c>
+      <c r="F25" s="10">
+        <v>218</v>
+      </c>
+      <c r="G25" s="10">
+        <v>276</v>
+      </c>
+      <c r="I25" s="2">
+        <v>276</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="8">
+        <v>94</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="E26" s="10">
+        <v>556</v>
+      </c>
+      <c r="F26" s="10">
+        <v>476</v>
+      </c>
+      <c r="G26" s="10">
+        <v>609</v>
+      </c>
+      <c r="I26" s="2">
+        <v>609</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="8">
+        <v>190</v>
+      </c>
+      <c r="N26" s="5">
+        <v>78</v>
+      </c>
+      <c r="O26" s="8">
+        <f>M26/N26</f>
+        <v>2.4358974358974357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1072</v>
+      </c>
+      <c r="F27" s="10">
+        <v>974</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1205</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1205</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="8">
+        <v>373</v>
+      </c>
+      <c r="N27" s="5">
+        <v>160</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" ref="O27:O33" si="1">M27/N27</f>
+        <v>2.3312499999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2075</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1998</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2493</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2493</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="9">
+        <v>801</v>
+      </c>
+      <c r="N28" s="5">
+        <v>356</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="E29" s="10">
+        <v>4267</v>
+      </c>
+      <c r="F29" s="10">
+        <v>4157</v>
+      </c>
+      <c r="G29" s="10">
+        <v>4512</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4512</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1582</v>
+      </c>
+      <c r="N29" s="5">
+        <v>767</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0625814863102998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+      <c r="E30" s="10">
+        <v>6825</v>
+      </c>
+      <c r="F30" s="10">
+        <v>6671</v>
+      </c>
+      <c r="G30" s="10">
+        <v>7901</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7901</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="9">
+        <v>3287</v>
+      </c>
+      <c r="N30" s="5">
+        <v>2195</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="1"/>
+        <v>1.49749430523918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>16000000</v>
+      </c>
+      <c r="E31" s="10">
+        <v>13546</v>
+      </c>
+      <c r="F31" s="10">
+        <v>13063</v>
+      </c>
+      <c r="G31" s="10">
+        <v>16270</v>
+      </c>
+      <c r="I31" s="2">
+        <v>16270</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="9">
+        <v>5289</v>
+      </c>
+      <c r="N31" s="5">
+        <v>3627</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4582299421009099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>32000000</v>
+      </c>
+      <c r="E32" s="10">
+        <v>27890</v>
+      </c>
+      <c r="F32" s="10">
+        <v>27017</v>
+      </c>
+      <c r="G32" s="10">
+        <v>33409</v>
+      </c>
+      <c r="I32" s="2">
+        <v>33409</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="9">
+        <v>10265</v>
+      </c>
+      <c r="N32" s="5">
+        <v>9468</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="1"/>
+        <v>1.084178284748627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
+      <c r="D33" s="7">
+        <f>D32*2</f>
+        <v>64000000</v>
+      </c>
+      <c r="E33" s="10">
+        <v>57321</v>
+      </c>
+      <c r="F33" s="10">
+        <v>55271</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="2">
+        <v>68498</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="9">
+        <v>21078</v>
+      </c>
+      <c r="N33" s="5">
+        <v>29372</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71762222524853603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G34" s="3"/>
+      <c r="L34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="9">
+        <v>43394</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88719FBB-BED9-4DFC-8820-BAC0D48929D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
